--- a/B1_SPREAD.xlsx
+++ b/B1_SPREAD.xlsx
@@ -3791,7 +3791,7 @@
         <v>0.0</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.0</v>
+        <v>81.0</v>
       </c>
       <c r="BX5" t="n">
         <v>1.0</v>
@@ -4024,7 +4024,7 @@
         <v>58.0</v>
       </c>
       <c r="BW6" t="n">
-        <v>0.0</v>
+        <v>58.0</v>
       </c>
       <c r="BX6" t="n">
         <v>0.0</v>
@@ -5422,7 +5422,7 @@
         <v>58.0</v>
       </c>
       <c r="BW12" t="n">
-        <v>0.0</v>
+        <v>58.0</v>
       </c>
       <c r="BX12" t="n">
         <v>1.0</v>
@@ -6354,7 +6354,7 @@
         <v>0.0</v>
       </c>
       <c r="BW16" t="n">
-        <v>0.0</v>
+        <v>79.0</v>
       </c>
       <c r="BX16" t="n">
         <v>0.0</v>
@@ -6820,7 +6820,7 @@
         <v>48.0</v>
       </c>
       <c r="BW18" t="n">
-        <v>0.0</v>
+        <v>48.0</v>
       </c>
       <c r="BX18" t="n">
         <v>0.0</v>
@@ -7985,7 +7985,7 @@
         <v>59.0</v>
       </c>
       <c r="BW23" t="n">
-        <v>0.0</v>
+        <v>59.0</v>
       </c>
       <c r="BX23" t="n">
         <v>1.0</v>
@@ -9150,7 +9150,7 @@
         <v>83.0</v>
       </c>
       <c r="BW28" t="n">
-        <v>0.0</v>
+        <v>83.0</v>
       </c>
       <c r="BX28" t="n">
         <v>0.0</v>
@@ -10082,7 +10082,7 @@
         <v>29.0</v>
       </c>
       <c r="BW32" t="n">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="BX32" t="n">
         <v>0.0</v>
@@ -10548,7 +10548,7 @@
         <v>40.0</v>
       </c>
       <c r="BW34" t="n">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="BX34" t="n">
         <v>0.0</v>
@@ -11014,7 +11014,7 @@
         <v>17.0</v>
       </c>
       <c r="BW36" t="n">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="BX36" t="n">
         <v>0.0</v>
@@ -11480,7 +11480,7 @@
         <v>32.0</v>
       </c>
       <c r="BW38" t="n">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="BX38" t="n">
         <v>0.0</v>
@@ -11946,7 +11946,7 @@
         <v>30.0</v>
       </c>
       <c r="BW40" t="n">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="BX40" t="n">
         <v>0.0</v>
@@ -12179,7 +12179,7 @@
         <v>85.0</v>
       </c>
       <c r="BW41" t="n">
-        <v>0.0</v>
+        <v>85.0</v>
       </c>
       <c r="BX41" t="n">
         <v>0.0</v>
@@ -12645,7 +12645,7 @@
         <v>0.0</v>
       </c>
       <c r="BW43" t="n">
-        <v>0.0</v>
+        <v>79.0</v>
       </c>
       <c r="BX43" t="n">
         <v>0.0</v>
@@ -13344,7 +13344,7 @@
         <v>0.0</v>
       </c>
       <c r="BW46" t="n">
-        <v>0.0</v>
+        <v>56.0</v>
       </c>
       <c r="BX46" t="n">
         <v>1.0</v>
@@ -13577,7 +13577,7 @@
         <v>0.0</v>
       </c>
       <c r="BW47" t="n">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="BX47" t="n">
         <v>0.0</v>
@@ -15441,7 +15441,7 @@
         <v>66.0</v>
       </c>
       <c r="BW55" t="n">
-        <v>0.0</v>
+        <v>66.0</v>
       </c>
       <c r="BX55" t="n">
         <v>0.0</v>
@@ -16140,7 +16140,7 @@
         <v>96.0</v>
       </c>
       <c r="BW58" t="n">
-        <v>0.0</v>
+        <v>96.0</v>
       </c>
       <c r="BX58" t="n">
         <v>2.0</v>
@@ -18237,7 +18237,7 @@
         <v>0.0</v>
       </c>
       <c r="BW67" t="n">
-        <v>0.0</v>
+        <v>36.0</v>
       </c>
       <c r="BX67" t="n">
         <v>0.0</v>
@@ -18703,7 +18703,7 @@
         <v>64.0</v>
       </c>
       <c r="BW69" t="n">
-        <v>0.0</v>
+        <v>64.0</v>
       </c>
       <c r="BX69" t="n">
         <v>0.0</v>
@@ -21033,7 +21033,7 @@
         <v>74.0</v>
       </c>
       <c r="BW79" t="n">
-        <v>0.0</v>
+        <v>74.0</v>
       </c>
       <c r="BX79" t="n">
         <v>0.0</v>
@@ -21732,7 +21732,7 @@
         <v>63.0</v>
       </c>
       <c r="BW82" t="n">
-        <v>0.0</v>
+        <v>63.0</v>
       </c>
       <c r="BX82" t="n">
         <v>0.0</v>
@@ -27091,7 +27091,7 @@
         <v>0.0</v>
       </c>
       <c r="BW105" t="n">
-        <v>0.0</v>
+        <v>35.0</v>
       </c>
       <c r="BX105" t="n">
         <v>1.0</v>
@@ -33382,7 +33382,7 @@
         <v>57.0</v>
       </c>
       <c r="BW132" t="n">
-        <v>0.0</v>
+        <v>57.0</v>
       </c>
       <c r="BX132" t="n">
         <v>0.0</v>
@@ -33615,7 +33615,7 @@
         <v>43.0</v>
       </c>
       <c r="BW133" t="n">
-        <v>0.0</v>
+        <v>43.0</v>
       </c>
       <c r="BX133" t="n">
         <v>1.0</v>
@@ -36411,7 +36411,7 @@
         <v>46.0</v>
       </c>
       <c r="BW145" t="n">
-        <v>0.0</v>
+        <v>46.0</v>
       </c>
       <c r="BX145" t="n">
         <v>1.0</v>
@@ -37110,7 +37110,7 @@
         <v>42.0</v>
       </c>
       <c r="BW148" t="n">
-        <v>0.0</v>
+        <v>42.0</v>
       </c>
       <c r="BX148" t="n">
         <v>0.0</v>
@@ -40838,7 +40838,7 @@
         <v>34.0</v>
       </c>
       <c r="BW164" t="n">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="BX164" t="n">
         <v>0.0</v>
@@ -41071,7 +41071,7 @@
         <v>62.0</v>
       </c>
       <c r="BW165" t="n">
-        <v>0.0</v>
+        <v>62.0</v>
       </c>
       <c r="BX165" t="n">
         <v>1.0</v>
@@ -42702,7 +42702,7 @@
         <v>67.0</v>
       </c>
       <c r="BW172" t="n">
-        <v>0.0</v>
+        <v>67.0</v>
       </c>
       <c r="BX172" t="n">
         <v>0.0</v>
@@ -43867,7 +43867,7 @@
         <v>36.0</v>
       </c>
       <c r="BW177" t="n">
-        <v>0.0</v>
+        <v>36.0</v>
       </c>
       <c r="BX177" t="n">
         <v>0.0</v>
@@ -44566,7 +44566,7 @@
         <v>0.0</v>
       </c>
       <c r="BW180" t="n">
-        <v>0.0</v>
+        <v>59.0</v>
       </c>
       <c r="BX180" t="n">
         <v>0.0</v>
@@ -45731,7 +45731,7 @@
         <v>0.0</v>
       </c>
       <c r="BW185" t="n">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="BX185" t="n">
         <v>0.0</v>
@@ -46430,7 +46430,7 @@
         <v>17.0</v>
       </c>
       <c r="BW188" t="n">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="BX188" t="n">
         <v>0.0</v>
@@ -47129,7 +47129,7 @@
         <v>0.0</v>
       </c>
       <c r="BW191" t="n">
-        <v>0.0</v>
+        <v>77.0</v>
       </c>
       <c r="BX191" t="n">
         <v>0.0</v>
@@ -47828,7 +47828,7 @@
         <v>83.0</v>
       </c>
       <c r="BW194" t="n">
-        <v>0.0</v>
+        <v>83.0</v>
       </c>
       <c r="BX194" t="n">
         <v>0.0</v>
@@ -48527,7 +48527,7 @@
         <v>67.0</v>
       </c>
       <c r="BW197" t="n">
-        <v>0.0</v>
+        <v>67.0</v>
       </c>
       <c r="BX197" t="n">
         <v>0.0</v>
@@ -48760,7 +48760,7 @@
         <v>0.0</v>
       </c>
       <c r="BW198" t="n">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="BX198" t="n">
         <v>2.0</v>
@@ -50624,7 +50624,7 @@
         <v>44.0</v>
       </c>
       <c r="BW206" t="n">
-        <v>0.0</v>
+        <v>44.0</v>
       </c>
       <c r="BX206" t="n">
         <v>0.0</v>
@@ -51789,7 +51789,7 @@
         <v>17.0</v>
       </c>
       <c r="BW211" t="n">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="BX211" t="n">
         <v>0.0</v>
@@ -52488,7 +52488,7 @@
         <v>56.0</v>
       </c>
       <c r="BW214" t="n">
-        <v>0.0</v>
+        <v>56.0</v>
       </c>
       <c r="BX214" t="n">
         <v>0.0</v>
@@ -55284,7 +55284,7 @@
         <v>70.0</v>
       </c>
       <c r="BW226" t="n">
-        <v>0.0</v>
+        <v>70.0</v>
       </c>
       <c r="BX226" t="n">
         <v>0.0</v>
@@ -55517,7 +55517,7 @@
         <v>40.0</v>
       </c>
       <c r="BW227" t="n">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="BX227" t="n">
         <v>0.0</v>
@@ -56216,7 +56216,7 @@
         <v>55.0</v>
       </c>
       <c r="BW230" t="n">
-        <v>0.0</v>
+        <v>55.0</v>
       </c>
       <c r="BX230" t="n">
         <v>0.0</v>
@@ -57614,7 +57614,7 @@
         <v>82.0</v>
       </c>
       <c r="BW236" t="n">
-        <v>0.0</v>
+        <v>82.0</v>
       </c>
       <c r="BX236" t="n">
         <v>1.0</v>
@@ -58313,7 +58313,7 @@
         <v>78.0</v>
       </c>
       <c r="BW239" t="n">
-        <v>0.0</v>
+        <v>78.0</v>
       </c>
       <c r="BX239" t="n">
         <v>0.0</v>
@@ -59711,7 +59711,7 @@
         <v>76.0</v>
       </c>
       <c r="BW245" t="n">
-        <v>0.0</v>
+        <v>76.0</v>
       </c>
       <c r="BX245" t="n">
         <v>0.0</v>
@@ -59944,7 +59944,7 @@
         <v>64.0</v>
       </c>
       <c r="BW246" t="n">
-        <v>0.0</v>
+        <v>64.0</v>
       </c>
       <c r="BX246" t="n">
         <v>0.0</v>
@@ -62973,7 +62973,7 @@
         <v>17.0</v>
       </c>
       <c r="BW259" t="n">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="BX259" t="n">
         <v>0.0</v>
@@ -63439,7 +63439,7 @@
         <v>32.0</v>
       </c>
       <c r="BW261" t="n">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="BX261" t="n">
         <v>0.0</v>
@@ -66235,7 +66235,7 @@
         <v>80.0</v>
       </c>
       <c r="BW273" t="n">
-        <v>0.0</v>
+        <v>80.0</v>
       </c>
       <c r="BX273" t="n">
         <v>0.0</v>
@@ -66934,7 +66934,7 @@
         <v>43.0</v>
       </c>
       <c r="BW276" t="n">
-        <v>0.0</v>
+        <v>43.0</v>
       </c>
       <c r="BX276" t="n">
         <v>0.0</v>
@@ -67866,7 +67866,7 @@
         <v>23.0</v>
       </c>
       <c r="BW280" t="n">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="BX280" t="n">
         <v>0.0</v>
@@ -69497,7 +69497,7 @@
         <v>87.0</v>
       </c>
       <c r="BW287" t="n">
-        <v>0.0</v>
+        <v>87.0</v>
       </c>
       <c r="BX287" t="n">
         <v>0.0</v>
@@ -69730,7 +69730,7 @@
         <v>0.0</v>
       </c>
       <c r="BW288" t="n">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="BX288" t="n">
         <v>0.0</v>
@@ -71128,7 +71128,7 @@
         <v>92.0</v>
       </c>
       <c r="BW294" t="n">
-        <v>0.0</v>
+        <v>92.0</v>
       </c>
       <c r="BX294" t="n">
         <v>1.0</v>
@@ -71361,7 +71361,7 @@
         <v>82.0</v>
       </c>
       <c r="BW295" t="n">
-        <v>0.0</v>
+        <v>82.0</v>
       </c>
       <c r="BX295" t="n">
         <v>0.0</v>
@@ -72060,7 +72060,7 @@
         <v>0.0</v>
       </c>
       <c r="BW298" t="n">
-        <v>0.0</v>
+        <v>90.0</v>
       </c>
       <c r="BX298" t="n">
         <v>0.0</v>
@@ -72759,7 +72759,7 @@
         <v>0.0</v>
       </c>
       <c r="BW301" t="n">
-        <v>0.0</v>
+        <v>37.0</v>
       </c>
       <c r="BX301" t="n">
         <v>0.0</v>
@@ -72992,7 +72992,7 @@
         <v>28.0</v>
       </c>
       <c r="BW302" t="n">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="BX302" t="n">
         <v>0.0</v>
@@ -73225,7 +73225,7 @@
         <v>0.0</v>
       </c>
       <c r="BW303" t="n">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="BX303" t="n">
         <v>0.0</v>
@@ -74390,7 +74390,7 @@
         <v>0.0</v>
       </c>
       <c r="BW308" t="n">
-        <v>0.0</v>
+        <v>68.0</v>
       </c>
       <c r="BX308" t="n">
         <v>0.0</v>
@@ -75089,7 +75089,7 @@
         <v>0.0</v>
       </c>
       <c r="BW311" t="n">
-        <v>0.0</v>
+        <v>60.0</v>
       </c>
       <c r="BX311" t="n">
         <v>0.0</v>

--- a/B1_SPREAD.xlsx
+++ b/B1_SPREAD.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="334">
   <si>
     <t>Div</t>
   </si>
@@ -440,6 +440,33 @@
     <t>63</t>
   </si>
   <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
     <t>B1</t>
   </si>
   <si>
@@ -500,6 +527,9 @@
     <t>A</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>0-0</t>
   </si>
   <si>
@@ -575,6 +605,9 @@
     <t>4-0</t>
   </si>
   <si>
+    <t>5-0</t>
+  </si>
+  <si>
     <t>7-2</t>
   </si>
   <si>
@@ -707,6 +740,15 @@
     <t>10-3</t>
   </si>
   <si>
+    <t>6-5</t>
+  </si>
+  <si>
+    <t>NA-NA</t>
+  </si>
+  <si>
+    <t>9-7</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -902,7 +944,31 @@
     <t>2024-09-22-Oud-Heverlee Leuven-Kortrijk</t>
   </si>
   <si>
-    <t/>
+    <t>2024-09-26-Cercle Brugge-Gent</t>
+  </si>
+  <si>
+    <t>2024-09-27-Charleroi-Club Brugge</t>
+  </si>
+  <si>
+    <t>2024-09-28-Genk-Mechelen</t>
+  </si>
+  <si>
+    <t>2024-09-28-Standard-Westerlo</t>
+  </si>
+  <si>
+    <t>2024-09-28-Dender-Anderlecht</t>
+  </si>
+  <si>
+    <t>2024-09-29-Antwerp-Beerschot VA</t>
+  </si>
+  <si>
+    <t>2024-09-29-St. Gilloise-Kortrijk</t>
+  </si>
+  <si>
+    <t>2024-09-29-Gent-Oud-Heverlee Leuven</t>
+  </si>
+  <si>
+    <t>2024-09-29-Cercle Brugge-St Truiden</t>
   </si>
   <si>
     <t>0</t>
@@ -1247,16 +1313,16 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C2" t="n" s="2">
         <v>45499.0</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="F2" t="n">
         <v>1.0</v>
@@ -1265,7 +1331,7 @@
         <v>1.0</v>
       </c>
       <c r="H2" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I2" t="n">
         <v>0.0</v>
@@ -1274,7 +1340,7 @@
         <v>0.0</v>
       </c>
       <c r="K2" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L2" t="n">
         <v>1.39</v>
@@ -1286,10 +1352,10 @@
         <v>7.82</v>
       </c>
       <c r="O2" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="P2" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="Q2" t="n">
         <v>28.0</v>
@@ -1337,16 +1403,16 @@
         <v>22.0</v>
       </c>
       <c r="AF2" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="AG2" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AH2" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AI2" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AJ2" t="n">
         <v>3.0</v>
@@ -1355,10 +1421,10 @@
         <v>0.0</v>
       </c>
       <c r="AL2" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="AM2" t="s">
-        <v>296</v>
+        <v>171</v>
       </c>
       <c r="AN2" t="n">
         <v>2.0</v>
@@ -1489,16 +1555,16 @@
         <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C3" t="n" s="2">
         <v>45500.0</v>
       </c>
       <c r="D3" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="F3" t="n">
         <v>1.0</v>
@@ -1507,7 +1573,7 @@
         <v>0.0</v>
       </c>
       <c r="H3" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I3" t="n">
         <v>0.0</v>
@@ -1516,7 +1582,7 @@
         <v>0.0</v>
       </c>
       <c r="K3" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L3" t="n">
         <v>1.51</v>
@@ -1528,10 +1594,10 @@
         <v>5.91</v>
       </c>
       <c r="O3" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="P3" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="Q3" t="n">
         <v>11.0</v>
@@ -1579,16 +1645,16 @@
         <v>18.0</v>
       </c>
       <c r="AF3" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="AG3" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AH3" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AI3" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AJ3" t="n">
         <v>0.0</v>
@@ -1597,10 +1663,10 @@
         <v>0.0</v>
       </c>
       <c r="AL3" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="AM3" t="s">
-        <v>296</v>
+        <v>171</v>
       </c>
       <c r="AN3" t="n">
         <v>1.0</v>
@@ -1731,16 +1797,16 @@
         <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C4" t="n" s="2">
         <v>45500.0</v>
       </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="E4" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="F4" t="n">
         <v>0.0</v>
@@ -1749,7 +1815,7 @@
         <v>0.0</v>
       </c>
       <c r="H4" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I4" t="n">
         <v>0.0</v>
@@ -1758,7 +1824,7 @@
         <v>0.0</v>
       </c>
       <c r="K4" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L4" t="n">
         <v>2.79</v>
@@ -1770,10 +1836,10 @@
         <v>2.5</v>
       </c>
       <c r="O4" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="P4" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="Q4" t="n">
         <v>1.0</v>
@@ -1821,16 +1887,16 @@
         <v>30.0</v>
       </c>
       <c r="AF4" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="AG4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AH4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AI4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AJ4" t="n">
         <v>3.0</v>
@@ -1839,10 +1905,10 @@
         <v>0.0</v>
       </c>
       <c r="AL4" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="AM4" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="AN4" t="n">
         <v>0.0</v>
@@ -1973,16 +2039,16 @@
         <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C5" t="n" s="2">
         <v>45500.0</v>
       </c>
       <c r="D5" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E5" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="F5" t="n">
         <v>0.0</v>
@@ -1991,7 +2057,7 @@
         <v>0.0</v>
       </c>
       <c r="H5" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I5" t="n">
         <v>0.0</v>
@@ -2000,7 +2066,7 @@
         <v>0.0</v>
       </c>
       <c r="K5" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L5" t="n">
         <v>6.58</v>
@@ -2012,10 +2078,10 @@
         <v>1.41</v>
       </c>
       <c r="O5" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="P5" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="Q5" t="n">
         <v>3.0</v>
@@ -2063,16 +2129,16 @@
         <v>19.0</v>
       </c>
       <c r="AF5" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="AG5" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AH5" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AI5" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AJ5" t="n">
         <v>6.0</v>
@@ -2081,10 +2147,10 @@
         <v>0.0</v>
       </c>
       <c r="AL5" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="AM5" t="s">
-        <v>296</v>
+        <v>171</v>
       </c>
       <c r="AN5" t="n">
         <v>0.0</v>
@@ -2215,16 +2281,16 @@
         <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C6" t="n" s="2">
         <v>45501.0</v>
       </c>
       <c r="D6" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="E6" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="F6" t="n">
         <v>0.0</v>
@@ -2233,7 +2299,7 @@
         <v>1.0</v>
       </c>
       <c r="H6" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="I6" t="n">
         <v>0.0</v>
@@ -2242,7 +2308,7 @@
         <v>1.0</v>
       </c>
       <c r="K6" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L6" t="n">
         <v>3.13</v>
@@ -2254,10 +2320,10 @@
         <v>2.23</v>
       </c>
       <c r="O6" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="P6" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="Q6" t="n">
         <v>12.0</v>
@@ -2305,16 +2371,16 @@
         <v>22.0</v>
       </c>
       <c r="AF6" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="AG6" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AH6" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AI6" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AJ6" t="n">
         <v>7.0</v>
@@ -2323,10 +2389,10 @@
         <v>0.0</v>
       </c>
       <c r="AL6" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="AM6" t="s">
-        <v>296</v>
+        <v>171</v>
       </c>
       <c r="AN6" t="n">
         <v>1.0</v>
@@ -2457,16 +2523,16 @@
         <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C7" t="n" s="2">
         <v>45501.0</v>
       </c>
       <c r="D7" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="E7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F7" t="n">
         <v>0.0</v>
@@ -2475,7 +2541,7 @@
         <v>0.0</v>
       </c>
       <c r="H7" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I7" t="n">
         <v>0.0</v>
@@ -2484,7 +2550,7 @@
         <v>0.0</v>
       </c>
       <c r="K7" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L7" t="n">
         <v>1.44</v>
@@ -2496,10 +2562,10 @@
         <v>6.5</v>
       </c>
       <c r="O7" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="P7" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="Q7" t="n">
         <v>21.0</v>
@@ -2547,16 +2613,16 @@
         <v>26.0</v>
       </c>
       <c r="AF7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="AG7" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AH7" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AI7" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AJ7" t="n">
         <v>4.0</v>
@@ -2565,10 +2631,10 @@
         <v>0.0</v>
       </c>
       <c r="AL7" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="AM7" t="s">
-        <v>296</v>
+        <v>171</v>
       </c>
       <c r="AN7" t="n">
         <v>0.0</v>
@@ -2699,16 +2765,16 @@
         <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C8" t="n" s="2">
         <v>45501.0</v>
       </c>
       <c r="D8" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="E8" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F8" t="n">
         <v>0.0</v>
@@ -2717,7 +2783,7 @@
         <v>1.0</v>
       </c>
       <c r="H8" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="I8" t="n">
         <v>0.0</v>
@@ -2726,7 +2792,7 @@
         <v>0.0</v>
       </c>
       <c r="K8" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L8" t="n">
         <v>4.9</v>
@@ -2738,10 +2804,10 @@
         <v>1.62</v>
       </c>
       <c r="O8" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="P8" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="Q8" t="n">
         <v>15.0</v>
@@ -2789,16 +2855,16 @@
         <v>17.0</v>
       </c>
       <c r="AF8" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="AG8" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AH8" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AI8" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AJ8" t="n">
         <v>4.0</v>
@@ -2807,10 +2873,10 @@
         <v>0.0</v>
       </c>
       <c r="AL8" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AM8" t="s">
-        <v>296</v>
+        <v>171</v>
       </c>
       <c r="AN8" t="n">
         <v>1.0</v>
@@ -2941,16 +3007,16 @@
         <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C9" t="n" s="2">
         <v>45501.0</v>
       </c>
       <c r="D9" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E9" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="F9" t="n">
         <v>3.0</v>
@@ -2959,7 +3025,7 @@
         <v>0.0</v>
       </c>
       <c r="H9" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I9" t="n">
         <v>1.0</v>
@@ -2968,7 +3034,7 @@
         <v>0.0</v>
       </c>
       <c r="K9" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L9" t="n">
         <v>2.9</v>
@@ -2980,10 +3046,10 @@
         <v>2.3</v>
       </c>
       <c r="O9" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="P9" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="Q9" t="n">
         <v>10.0</v>
@@ -3031,16 +3097,16 @@
         <v>21.0</v>
       </c>
       <c r="AF9" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="AG9" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AH9" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AI9" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AJ9" t="n">
         <v>1.0</v>
@@ -3049,10 +3115,10 @@
         <v>0.0</v>
       </c>
       <c r="AL9" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="AM9" t="s">
-        <v>296</v>
+        <v>171</v>
       </c>
       <c r="AN9" t="n">
         <v>3.0</v>
@@ -3183,16 +3249,16 @@
         <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C10" t="n" s="2">
         <v>45506.0</v>
       </c>
       <c r="D10" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="E10" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="F10" t="n">
         <v>3.0</v>
@@ -3201,7 +3267,7 @@
         <v>1.0</v>
       </c>
       <c r="H10" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I10" t="n">
         <v>2.0</v>
@@ -3210,7 +3276,7 @@
         <v>0.0</v>
       </c>
       <c r="K10" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L10" t="n">
         <v>1.37</v>
@@ -3222,10 +3288,10 @@
         <v>7.98</v>
       </c>
       <c r="O10" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="P10" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="Q10" t="n">
         <v>10.0</v>
@@ -3273,16 +3339,16 @@
         <v>22.0</v>
       </c>
       <c r="AF10" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="AG10" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AH10" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AI10" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AJ10" t="n">
         <v>4.0</v>
@@ -3291,10 +3357,10 @@
         <v>0.0</v>
       </c>
       <c r="AL10" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="AM10" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="AN10" t="n">
         <v>4.0</v>
@@ -3425,16 +3491,16 @@
         <v>88</v>
       </c>
       <c r="B11" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C11" t="n" s="2">
         <v>45507.0</v>
       </c>
       <c r="D11" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E11" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="F11" t="n">
         <v>2.0</v>
@@ -3443,7 +3509,7 @@
         <v>4.0</v>
       </c>
       <c r="H11" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="I11" t="n">
         <v>0.0</v>
@@ -3452,7 +3518,7 @@
         <v>2.0</v>
       </c>
       <c r="K11" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L11" t="n">
         <v>1.89</v>
@@ -3464,10 +3530,10 @@
         <v>3.65</v>
       </c>
       <c r="O11" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="P11" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="Q11" t="n">
         <v>12.0</v>
@@ -3515,16 +3581,16 @@
         <v>27.0</v>
       </c>
       <c r="AF11" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="AG11" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AH11" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AI11" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AJ11" t="n">
         <v>7.0</v>
@@ -3533,10 +3599,10 @@
         <v>0.0</v>
       </c>
       <c r="AL11" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="AM11" t="s">
-        <v>296</v>
+        <v>171</v>
       </c>
       <c r="AN11" t="n">
         <v>6.0</v>
@@ -3667,16 +3733,16 @@
         <v>89</v>
       </c>
       <c r="B12" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C12" t="n" s="2">
         <v>45507.0</v>
       </c>
       <c r="D12" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E12" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="F12" t="n">
         <v>3.0</v>
@@ -3685,7 +3751,7 @@
         <v>1.0</v>
       </c>
       <c r="H12" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I12" t="n">
         <v>2.0</v>
@@ -3694,7 +3760,7 @@
         <v>0.0</v>
       </c>
       <c r="K12" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L12" t="n">
         <v>3.4</v>
@@ -3706,10 +3772,10 @@
         <v>2.09</v>
       </c>
       <c r="O12" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="P12" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="Q12" t="n">
         <v>11.0</v>
@@ -3757,16 +3823,16 @@
         <v>28.0</v>
       </c>
       <c r="AF12" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="AG12" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AH12" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AI12" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AJ12" t="n">
         <v>4.0</v>
@@ -3775,10 +3841,10 @@
         <v>0.0</v>
       </c>
       <c r="AL12" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="AM12" t="s">
-        <v>296</v>
+        <v>171</v>
       </c>
       <c r="AN12" t="n">
         <v>4.0</v>
@@ -3909,16 +3975,16 @@
         <v>90</v>
       </c>
       <c r="B13" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C13" t="n" s="2">
         <v>45507.0</v>
       </c>
       <c r="D13" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E13" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="F13" t="n">
         <v>1.0</v>
@@ -3927,7 +3993,7 @@
         <v>4.0</v>
       </c>
       <c r="H13" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="I13" t="n">
         <v>0.0</v>
@@ -3936,7 +4002,7 @@
         <v>4.0</v>
       </c>
       <c r="K13" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L13" t="n">
         <v>2.52</v>
@@ -3948,10 +4014,10 @@
         <v>2.76</v>
       </c>
       <c r="O13" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="P13" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="Q13" t="n">
         <v>3.0</v>
@@ -3999,16 +4065,16 @@
         <v>13.0</v>
       </c>
       <c r="AF13" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="AG13" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AH13" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AI13" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AJ13" t="n">
         <v>2.0</v>
@@ -4017,10 +4083,10 @@
         <v>0.0</v>
       </c>
       <c r="AL13" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="AM13" t="s">
-        <v>296</v>
+        <v>171</v>
       </c>
       <c r="AN13" t="n">
         <v>5.0</v>
@@ -4151,16 +4217,16 @@
         <v>91</v>
       </c>
       <c r="B14" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C14" t="n" s="2">
         <v>45508.0</v>
       </c>
       <c r="D14" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E14" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="F14" t="n">
         <v>1.0</v>
@@ -4169,7 +4235,7 @@
         <v>2.0</v>
       </c>
       <c r="H14" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="I14" t="n">
         <v>1.0</v>
@@ -4178,7 +4244,7 @@
         <v>1.0</v>
       </c>
       <c r="K14" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L14" t="n">
         <v>2.78</v>
@@ -4190,10 +4256,10 @@
         <v>2.47</v>
       </c>
       <c r="O14" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="P14" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="Q14" t="n">
         <v>17.0</v>
@@ -4241,16 +4307,16 @@
         <v>28.0</v>
       </c>
       <c r="AF14" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="AG14" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AH14" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AI14" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AJ14" t="n">
         <v>2.0</v>
@@ -4259,10 +4325,10 @@
         <v>0.0</v>
       </c>
       <c r="AL14" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="AM14" t="s">
-        <v>296</v>
+        <v>171</v>
       </c>
       <c r="AN14" t="n">
         <v>3.0</v>
@@ -4393,16 +4459,16 @@
         <v>92</v>
       </c>
       <c r="B15" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C15" t="n" s="2">
         <v>45508.0</v>
       </c>
       <c r="D15" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E15" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="F15" t="n">
         <v>1.0</v>
@@ -4411,7 +4477,7 @@
         <v>2.0</v>
       </c>
       <c r="H15" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="I15" t="n">
         <v>1.0</v>
@@ -4420,7 +4486,7 @@
         <v>1.0</v>
       </c>
       <c r="K15" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L15" t="n">
         <v>1.63</v>
@@ -4432,10 +4498,10 @@
         <v>4.89</v>
       </c>
       <c r="O15" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="P15" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="Q15" t="n">
         <v>23.0</v>
@@ -4483,16 +4549,16 @@
         <v>20.0</v>
       </c>
       <c r="AF15" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="AG15" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AH15" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AI15" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AJ15" t="n">
         <v>5.0</v>
@@ -4501,10 +4567,10 @@
         <v>0.0</v>
       </c>
       <c r="AL15" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="AM15" t="s">
-        <v>296</v>
+        <v>171</v>
       </c>
       <c r="AN15" t="n">
         <v>3.0</v>
@@ -4635,16 +4701,16 @@
         <v>93</v>
       </c>
       <c r="B16" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C16" t="n" s="2">
         <v>45508.0</v>
       </c>
       <c r="D16" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="E16" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F16" t="n">
         <v>1.0</v>
@@ -4653,7 +4719,7 @@
         <v>0.0</v>
       </c>
       <c r="H16" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I16" t="n">
         <v>0.0</v>
@@ -4662,7 +4728,7 @@
         <v>0.0</v>
       </c>
       <c r="K16" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L16" t="n">
         <v>5.51</v>
@@ -4674,10 +4740,10 @@
         <v>1.52</v>
       </c>
       <c r="O16" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="P16" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="Q16" t="n">
         <v>10.0</v>
@@ -4725,16 +4791,16 @@
         <v>18.0</v>
       </c>
       <c r="AF16" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="AG16" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AH16" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AI16" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AJ16" t="n">
         <v>2.0</v>
@@ -4743,10 +4809,10 @@
         <v>0.0</v>
       </c>
       <c r="AL16" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="AM16" t="s">
-        <v>296</v>
+        <v>171</v>
       </c>
       <c r="AN16" t="n">
         <v>1.0</v>
@@ -4877,16 +4943,16 @@
         <v>94</v>
       </c>
       <c r="B17" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C17" t="n" s="2">
         <v>45508.0</v>
       </c>
       <c r="D17" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="E17" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="F17" t="n">
         <v>1.0</v>
@@ -4895,7 +4961,7 @@
         <v>2.0</v>
       </c>
       <c r="H17" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="I17" t="n">
         <v>0.0</v>
@@ -4904,7 +4970,7 @@
         <v>1.0</v>
       </c>
       <c r="K17" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L17" t="n">
         <v>1.34</v>
@@ -4916,10 +4982,10 @@
         <v>7.78</v>
       </c>
       <c r="O17" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="P17" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="Q17" t="n">
         <v>15.0</v>
@@ -4967,16 +5033,16 @@
         <v>21.0</v>
       </c>
       <c r="AF17" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="AG17" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AH17" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AI17" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AJ17" t="n">
         <v>3.0</v>
@@ -4985,10 +5051,10 @@
         <v>0.0</v>
       </c>
       <c r="AL17" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="AM17" t="s">
-        <v>298</v>
+        <v>320</v>
       </c>
       <c r="AN17" t="n">
         <v>3.0</v>
@@ -5119,16 +5185,16 @@
         <v>95</v>
       </c>
       <c r="B18" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C18" t="n" s="2">
         <v>45513.0</v>
       </c>
       <c r="D18" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="E18" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="F18" t="n">
         <v>0.0</v>
@@ -5137,7 +5203,7 @@
         <v>0.0</v>
       </c>
       <c r="H18" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I18" t="n">
         <v>0.0</v>
@@ -5146,7 +5212,7 @@
         <v>0.0</v>
       </c>
       <c r="K18" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L18" t="n">
         <v>2.54</v>
@@ -5158,10 +5224,10 @@
         <v>2.86</v>
       </c>
       <c r="O18" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="P18" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="Q18" t="n">
         <v>17.0</v>
@@ -5209,16 +5275,16 @@
         <v>16.0</v>
       </c>
       <c r="AF18" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="AG18" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AH18" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AI18" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AJ18" t="n">
         <v>2.0</v>
@@ -5227,10 +5293,10 @@
         <v>0.0</v>
       </c>
       <c r="AL18" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="AM18" t="s">
-        <v>296</v>
+        <v>171</v>
       </c>
       <c r="AN18" t="n">
         <v>0.0</v>
@@ -5361,16 +5427,16 @@
         <v>96</v>
       </c>
       <c r="B19" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C19" t="n" s="2">
         <v>45514.0</v>
       </c>
       <c r="D19" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E19" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="F19" t="n">
         <v>4.0</v>
@@ -5379,7 +5445,7 @@
         <v>1.0</v>
       </c>
       <c r="H19" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I19" t="n">
         <v>2.0</v>
@@ -5388,7 +5454,7 @@
         <v>1.0</v>
       </c>
       <c r="K19" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L19" t="n">
         <v>2.19</v>
@@ -5400,10 +5466,10 @@
         <v>3.21</v>
       </c>
       <c r="O19" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="P19" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="Q19" t="n">
         <v>12.0</v>
@@ -5451,16 +5517,16 @@
         <v>18.0</v>
       </c>
       <c r="AF19" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="AG19" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AH19" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AI19" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AJ19" t="n">
         <v>4.0</v>
@@ -5469,10 +5535,10 @@
         <v>1.0</v>
       </c>
       <c r="AL19" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="AM19" t="s">
-        <v>296</v>
+        <v>171</v>
       </c>
       <c r="AN19" t="n">
         <v>5.0</v>
@@ -5603,16 +5669,16 @@
         <v>97</v>
       </c>
       <c r="B20" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C20" t="n" s="2">
         <v>45514.0</v>
       </c>
       <c r="D20" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E20" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="F20" t="n">
         <v>4.0</v>
@@ -5621,7 +5687,7 @@
         <v>3.0</v>
       </c>
       <c r="H20" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I20" t="n">
         <v>3.0</v>
@@ -5630,7 +5696,7 @@
         <v>1.0</v>
       </c>
       <c r="K20" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L20" t="n">
         <v>3.65</v>
@@ -5642,10 +5708,10 @@
         <v>1.95</v>
       </c>
       <c r="O20" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="P20" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="Q20" t="n">
         <v>24.0</v>
@@ -5693,16 +5759,16 @@
         <v>26.0</v>
       </c>
       <c r="AF20" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="AG20" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AH20" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AI20" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AJ20" t="n">
         <v>8.0</v>
@@ -5711,10 +5777,10 @@
         <v>0.0</v>
       </c>
       <c r="AL20" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="AM20" t="s">
-        <v>296</v>
+        <v>171</v>
       </c>
       <c r="AN20" t="n">
         <v>7.0</v>
@@ -5845,16 +5911,16 @@
         <v>98</v>
       </c>
       <c r="B21" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C21" t="n" s="2">
         <v>45514.0</v>
       </c>
       <c r="D21" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E21" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="F21" t="n">
         <v>1.0</v>
@@ -5863,7 +5929,7 @@
         <v>1.0</v>
       </c>
       <c r="H21" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I21" t="n">
         <v>1.0</v>
@@ -5872,7 +5938,7 @@
         <v>1.0</v>
       </c>
       <c r="K21" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L21" t="n">
         <v>1.85</v>
@@ -5884,10 +5950,10 @@
         <v>4.18</v>
       </c>
       <c r="O21" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="P21" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="Q21" t="n">
         <v>19.0</v>
@@ -5935,16 +6001,16 @@
         <v>24.0</v>
       </c>
       <c r="AF21" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="AG21" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AH21" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AI21" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AJ21" t="n">
         <v>5.0</v>
@@ -5953,10 +6019,10 @@
         <v>0.0</v>
       </c>
       <c r="AL21" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="AM21" t="s">
-        <v>296</v>
+        <v>171</v>
       </c>
       <c r="AN21" t="n">
         <v>2.0</v>
@@ -6087,16 +6153,16 @@
         <v>99</v>
       </c>
       <c r="B22" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C22" t="n" s="2">
         <v>45515.0</v>
       </c>
       <c r="D22" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="E22" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F22" t="n">
         <v>3.0</v>
@@ -6105,7 +6171,7 @@
         <v>2.0</v>
       </c>
       <c r="H22" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I22" t="n">
         <v>0.0</v>
@@ -6114,7 +6180,7 @@
         <v>1.0</v>
       </c>
       <c r="K22" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L22" t="n">
         <v>3.48</v>
@@ -6126,10 +6192,10 @@
         <v>2.03</v>
       </c>
       <c r="O22" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="P22" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="Q22" t="n">
         <v>14.0</v>
@@ -6177,16 +6243,16 @@
         <v>14.0</v>
       </c>
       <c r="AF22" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="AG22" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AH22" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AI22" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AJ22" t="n">
         <v>4.0</v>
@@ -6195,10 +6261,10 @@
         <v>0.0</v>
       </c>
       <c r="AL22" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="AM22" t="s">
-        <v>296</v>
+        <v>171</v>
       </c>
       <c r="AN22" t="n">
         <v>5.0</v>
@@ -6329,16 +6395,16 @@
         <v>100</v>
       </c>
       <c r="B23" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C23" t="n" s="2">
         <v>45515.0</v>
       </c>
       <c r="D23" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E23" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="F23" t="n">
         <v>6.0</v>
@@ -6347,7 +6413,7 @@
         <v>1.0</v>
       </c>
       <c r="H23" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I23" t="n">
         <v>2.0</v>
@@ -6356,7 +6422,7 @@
         <v>0.0</v>
       </c>
       <c r="K23" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L23" t="n">
         <v>1.37</v>
@@ -6368,10 +6434,10 @@
         <v>7.68</v>
       </c>
       <c r="O23" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="P23" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="Q23" t="n">
         <v>11.0</v>
@@ -6419,16 +6485,16 @@
         <v>12.0</v>
       </c>
       <c r="AF23" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="AG23" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AH23" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AI23" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AJ23" t="n">
         <v>1.0</v>
@@ -6437,10 +6503,10 @@
         <v>0.0</v>
       </c>
       <c r="AL23" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="AM23" t="s">
-        <v>296</v>
+        <v>171</v>
       </c>
       <c r="AN23" t="n">
         <v>7.0</v>
@@ -6571,16 +6637,16 @@
         <v>101</v>
       </c>
       <c r="B24" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C24" t="n" s="2">
         <v>45515.0</v>
       </c>
       <c r="D24" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="E24" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F24" t="n">
         <v>1.0</v>
@@ -6589,7 +6655,7 @@
         <v>0.0</v>
       </c>
       <c r="H24" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I24" t="n">
         <v>0.0</v>
@@ -6598,7 +6664,7 @@
         <v>0.0</v>
       </c>
       <c r="K24" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L24" t="n">
         <v>2.86</v>
@@ -6610,10 +6676,10 @@
         <v>2.31</v>
       </c>
       <c r="O24" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="P24" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="Q24" t="n">
         <v>17.0</v>
@@ -6661,16 +6727,16 @@
         <v>20.0</v>
       </c>
       <c r="AF24" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="AG24" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AH24" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AI24" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AJ24" t="n">
         <v>4.0</v>
@@ -6679,10 +6745,10 @@
         <v>0.0</v>
       </c>
       <c r="AL24" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="AM24" t="s">
-        <v>296</v>
+        <v>171</v>
       </c>
       <c r="AN24" t="n">
         <v>1.0</v>
@@ -6813,16 +6879,16 @@
         <v>102</v>
       </c>
       <c r="B25" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C25" t="n" s="2">
         <v>45515.0</v>
       </c>
       <c r="D25" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E25" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="F25" t="n">
         <v>4.0</v>
@@ -6831,7 +6897,7 @@
         <v>1.0</v>
       </c>
       <c r="H25" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I25" t="n">
         <v>3.0</v>
@@ -6840,7 +6906,7 @@
         <v>1.0</v>
       </c>
       <c r="K25" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L25" t="n">
         <v>1.53</v>
@@ -6852,10 +6918,10 @@
         <v>5.44</v>
       </c>
       <c r="O25" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="P25" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="Q25" t="n">
         <v>22.0</v>
@@ -6903,16 +6969,16 @@
         <v>20.0</v>
       </c>
       <c r="AF25" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="AG25" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AH25" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AI25" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AJ25" t="n">
         <v>4.0</v>
@@ -6921,10 +6987,10 @@
         <v>0.0</v>
       </c>
       <c r="AL25" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="AM25" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="AN25" t="n">
         <v>5.0</v>
@@ -7055,16 +7121,16 @@
         <v>103</v>
       </c>
       <c r="B26" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C26" t="n" s="2">
         <v>45520.0</v>
       </c>
       <c r="D26" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="E26" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="F26" t="n">
         <v>1.0</v>
@@ -7073,7 +7139,7 @@
         <v>0.0</v>
       </c>
       <c r="H26" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I26" t="n">
         <v>0.0</v>
@@ -7082,7 +7148,7 @@
         <v>0.0</v>
       </c>
       <c r="K26" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L26" t="n">
         <v>1.81</v>
@@ -7094,10 +7160,10 @@
         <v>4.4</v>
       </c>
       <c r="O26" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="P26" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="Q26" t="n">
         <v>18.0</v>
@@ -7145,16 +7211,16 @@
         <v>33.0</v>
       </c>
       <c r="AF26" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="AG26" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AH26" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AI26" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AJ26" t="n">
         <v>5.0</v>
@@ -7163,10 +7229,10 @@
         <v>0.0</v>
       </c>
       <c r="AL26" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="AM26" t="s">
-        <v>296</v>
+        <v>171</v>
       </c>
       <c r="AN26" t="n">
         <v>1.0</v>
@@ -7297,16 +7363,16 @@
         <v>104</v>
       </c>
       <c r="B27" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C27" t="n" s="2">
         <v>45521.0</v>
       </c>
       <c r="D27" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="E27" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="F27" t="n">
         <v>3.0</v>
@@ -7315,7 +7381,7 @@
         <v>4.0</v>
       </c>
       <c r="H27" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="I27" t="n">
         <v>1.0</v>
@@ -7324,7 +7390,7 @@
         <v>3.0</v>
       </c>
       <c r="K27" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L27" t="n">
         <v>4.7</v>
@@ -7336,10 +7402,10 @@
         <v>1.65</v>
       </c>
       <c r="O27" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="P27" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="Q27" t="n">
         <v>15.0</v>
@@ -7387,16 +7453,16 @@
         <v>19.0</v>
       </c>
       <c r="AF27" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="AG27" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AH27" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AI27" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AJ27" t="n">
         <v>4.0</v>
@@ -7405,10 +7471,10 @@
         <v>1.0</v>
       </c>
       <c r="AL27" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="AM27" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="AN27" t="n">
         <v>7.0</v>
@@ -7539,16 +7605,16 @@
         <v>105</v>
       </c>
       <c r="B28" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C28" t="n" s="2">
         <v>45521.0</v>
       </c>
       <c r="D28" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E28" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="F28" t="n">
         <v>3.0</v>
@@ -7557,7 +7623,7 @@
         <v>3.0</v>
       </c>
       <c r="H28" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I28" t="n">
         <v>2.0</v>
@@ -7566,7 +7632,7 @@
         <v>1.0</v>
       </c>
       <c r="K28" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L28" t="n">
         <v>2.47</v>
@@ -7578,10 +7644,10 @@
         <v>2.7</v>
       </c>
       <c r="O28" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="P28" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="Q28" t="n">
         <v>12.0</v>
@@ -7629,16 +7695,16 @@
         <v>16.0</v>
       </c>
       <c r="AF28" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="AG28" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AH28" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AI28" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AJ28" t="n">
         <v>2.0</v>
@@ -7647,10 +7713,10 @@
         <v>0.0</v>
       </c>
       <c r="AL28" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="AM28" t="s">
-        <v>296</v>
+        <v>171</v>
       </c>
       <c r="AN28" t="n">
         <v>6.0</v>
@@ -7781,16 +7847,16 @@
         <v>106</v>
       </c>
       <c r="B29" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C29" t="n" s="2">
         <v>45521.0</v>
       </c>
       <c r="D29" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E29" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="F29" t="n">
         <v>1.0</v>
@@ -7799,7 +7865,7 @@
         <v>3.0</v>
       </c>
       <c r="H29" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="I29" t="n">
         <v>1.0</v>
@@ -7808,7 +7874,7 @@
         <v>2.0</v>
       </c>
       <c r="K29" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L29" t="n">
         <v>3.28</v>
@@ -7820,10 +7886,10 @@
         <v>2.11</v>
       </c>
       <c r="O29" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="P29" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="Q29" t="n">
         <v>22.0</v>
@@ -7871,16 +7937,16 @@
         <v>24.0</v>
       </c>
       <c r="AF29" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="AG29" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AH29" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AI29" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AJ29" t="n">
         <v>3.0</v>
@@ -7889,10 +7955,10 @@
         <v>0.0</v>
       </c>
       <c r="AL29" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="AM29" t="s">
-        <v>296</v>
+        <v>171</v>
       </c>
       <c r="AN29" t="n">
         <v>4.0</v>
@@ -8023,16 +8089,16 @@
         <v>107</v>
       </c>
       <c r="B30" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C30" t="n" s="2">
         <v>45522.0</v>
       </c>
       <c r="D30" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E30" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="F30" t="n">
         <v>1.0</v>
@@ -8041,7 +8107,7 @@
         <v>0.0</v>
       </c>
       <c r="H30" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I30" t="n">
         <v>0.0</v>
@@ -8050,7 +8116,7 @@
         <v>0.0</v>
       </c>
       <c r="K30" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L30" t="n">
         <v>1.79</v>
@@ -8062,10 +8128,10 @@
         <v>3.98</v>
       </c>
       <c r="O30" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="P30" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="Q30" t="n">
         <v>14.0</v>
@@ -8113,16 +8179,16 @@
         <v>27.0</v>
       </c>
       <c r="AF30" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="AG30" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AH30" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AI30" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AJ30" t="n">
         <v>5.0</v>
@@ -8131,10 +8197,10 @@
         <v>1.0</v>
       </c>
       <c r="AL30" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="AM30" t="s">
-        <v>296</v>
+        <v>171</v>
       </c>
       <c r="AN30" t="n">
         <v>1.0</v>
@@ -8265,16 +8331,16 @@
         <v>108</v>
       </c>
       <c r="B31" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C31" t="n" s="2">
         <v>45522.0</v>
       </c>
       <c r="D31" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E31" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="F31" t="n">
         <v>1.0</v>
@@ -8283,7 +8349,7 @@
         <v>1.0</v>
       </c>
       <c r="H31" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I31" t="n">
         <v>1.0</v>
@@ -8292,7 +8358,7 @@
         <v>1.0</v>
       </c>
       <c r="K31" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L31" t="n">
         <v>2.81</v>
@@ -8304,10 +8370,10 @@
         <v>2.5</v>
       </c>
       <c r="O31" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="P31" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="Q31" t="n">
         <v>12.0</v>
@@ -8355,16 +8421,16 @@
         <v>24.0</v>
       </c>
       <c r="AF31" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="AG31" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AH31" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AI31" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AJ31" t="n">
         <v>5.0</v>
@@ -8373,10 +8439,10 @@
         <v>1.0</v>
       </c>
       <c r="AL31" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="AM31" t="s">
-        <v>296</v>
+        <v>171</v>
       </c>
       <c r="AN31" t="n">
         <v>2.0</v>
@@ -8507,16 +8573,16 @@
         <v>109</v>
       </c>
       <c r="B32" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C32" t="n" s="2">
         <v>45522.0</v>
       </c>
       <c r="D32" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="E32" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F32" t="n">
         <v>1.0</v>
@@ -8525,7 +8591,7 @@
         <v>0.0</v>
       </c>
       <c r="H32" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I32" t="n">
         <v>0.0</v>
@@ -8534,7 +8600,7 @@
         <v>0.0</v>
       </c>
       <c r="K32" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L32" t="n">
         <v>2.73</v>
@@ -8546,10 +8612,10 @@
         <v>2.63</v>
       </c>
       <c r="O32" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="P32" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="Q32" t="n">
         <v>21.0</v>
@@ -8597,16 +8663,16 @@
         <v>22.0</v>
       </c>
       <c r="AF32" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="AG32" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AH32" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AI32" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AJ32" t="n">
         <v>2.0</v>
@@ -8615,10 +8681,10 @@
         <v>1.0</v>
       </c>
       <c r="AL32" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="AM32" t="s">
-        <v>296</v>
+        <v>171</v>
       </c>
       <c r="AN32" t="n">
         <v>1.0</v>
@@ -8749,16 +8815,16 @@
         <v>110</v>
       </c>
       <c r="B33" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C33" t="n" s="2">
         <v>45522.0</v>
       </c>
       <c r="D33" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="E33" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="F33" t="n">
         <v>4.0</v>
@@ -8767,7 +8833,7 @@
         <v>1.0</v>
       </c>
       <c r="H33" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I33" t="n">
         <v>3.0</v>
@@ -8776,7 +8842,7 @@
         <v>1.0</v>
       </c>
       <c r="K33" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L33" t="n">
         <v>1.91</v>
@@ -8788,10 +8854,10 @@
         <v>3.46</v>
       </c>
       <c r="O33" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="P33" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="Q33" t="n">
         <v>15.0</v>
@@ -8839,16 +8905,16 @@
         <v>28.0</v>
       </c>
       <c r="AF33" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="AG33" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AH33" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AI33" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AJ33" t="n">
         <v>3.0</v>
@@ -8857,10 +8923,10 @@
         <v>0.0</v>
       </c>
       <c r="AL33" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="AM33" t="s">
-        <v>296</v>
+        <v>171</v>
       </c>
       <c r="AN33" t="n">
         <v>5.0</v>
@@ -8991,16 +9057,16 @@
         <v>111</v>
       </c>
       <c r="B34" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C34" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D34" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E34" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="F34" t="n">
         <v>1.0</v>
@@ -9009,7 +9075,7 @@
         <v>1.0</v>
       </c>
       <c r="H34" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I34" t="n">
         <v>1.0</v>
@@ -9018,7 +9084,7 @@
         <v>1.0</v>
       </c>
       <c r="K34" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L34" t="n">
         <v>2.05</v>
@@ -9030,10 +9096,10 @@
         <v>3.51</v>
       </c>
       <c r="O34" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="P34" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="Q34" t="n">
         <v>15.0</v>
@@ -9081,16 +9147,16 @@
         <v>26.0</v>
       </c>
       <c r="AF34" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="AG34" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AH34" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AI34" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AJ34" t="n">
         <v>5.0</v>
@@ -9099,10 +9165,10 @@
         <v>0.0</v>
       </c>
       <c r="AL34" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="AM34" t="s">
-        <v>296</v>
+        <v>171</v>
       </c>
       <c r="AN34" t="n">
         <v>2.0</v>
@@ -9233,16 +9299,16 @@
         <v>112</v>
       </c>
       <c r="B35" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C35" t="n" s="2">
         <v>45528.0</v>
       </c>
       <c r="D35" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E35" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="F35" t="n">
         <v>0.0</v>
@@ -9251,7 +9317,7 @@
         <v>1.0</v>
       </c>
       <c r="H35" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="I35" t="n">
         <v>0.0</v>
@@ -9260,7 +9326,7 @@
         <v>1.0</v>
       </c>
       <c r="K35" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L35" t="n">
         <v>1.53</v>
@@ -9272,10 +9338,10 @@
         <v>5.59</v>
       </c>
       <c r="O35" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="P35" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="Q35" t="n">
         <v>19.0</v>
@@ -9323,16 +9389,16 @@
         <v>20.0</v>
       </c>
       <c r="AF35" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="AG35" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AH35" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AI35" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AJ35" t="n">
         <v>4.0</v>
@@ -9341,10 +9407,10 @@
         <v>0.0</v>
       </c>
       <c r="AL35" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="AM35" t="s">
-        <v>296</v>
+        <v>171</v>
       </c>
       <c r="AN35" t="n">
         <v>1.0</v>
@@ -9475,16 +9541,16 @@
         <v>113</v>
       </c>
       <c r="B36" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C36" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D36" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E36" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F36" t="n">
         <v>1.0</v>
@@ -9493,7 +9559,7 @@
         <v>2.0</v>
       </c>
       <c r="H36" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="I36" t="n">
         <v>1.0</v>
@@ -9502,7 +9568,7 @@
         <v>2.0</v>
       </c>
       <c r="K36" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L36" t="n">
         <v>5.09</v>
@@ -9514,10 +9580,10 @@
         <v>1.56</v>
       </c>
       <c r="O36" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="P36" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="Q36" t="n">
         <v>11.0</v>
@@ -9565,16 +9631,16 @@
         <v>26.0</v>
       </c>
       <c r="AF36" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AG36" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AH36" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AI36" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AJ36" t="n">
         <v>5.0</v>
@@ -9583,10 +9649,10 @@
         <v>0.0</v>
       </c>
       <c r="AL36" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="AM36" t="s">
-        <v>296</v>
+        <v>171</v>
       </c>
       <c r="AN36" t="n">
         <v>3.0</v>
@@ -9717,16 +9783,16 @@
         <v>114</v>
       </c>
       <c r="B37" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C37" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D37" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E37" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="F37" t="n">
         <v>0.0</v>
@@ -9735,7 +9801,7 @@
         <v>0.0</v>
       </c>
       <c r="H37" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I37" t="n">
         <v>0.0</v>
@@ -9744,7 +9810,7 @@
         <v>0.0</v>
       </c>
       <c r="K37" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L37" t="n">
         <v>6.26</v>
@@ -9756,10 +9822,10 @@
         <v>1.47</v>
       </c>
       <c r="O37" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="P37" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="Q37" t="n">
         <v>5.0</v>
@@ -9807,16 +9873,16 @@
         <v>22.0</v>
       </c>
       <c r="AF37" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="AG37" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AH37" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AI37" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AJ37" t="n">
         <v>5.0</v>
@@ -9825,10 +9891,10 @@
         <v>1.0</v>
       </c>
       <c r="AL37" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="AM37" t="s">
-        <v>296</v>
+        <v>171</v>
       </c>
       <c r="AN37" t="n">
         <v>0.0</v>
@@ -9959,16 +10025,16 @@
         <v>115</v>
       </c>
       <c r="B38" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C38" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D38" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="E38" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="F38" t="n">
         <v>1.0</v>
@@ -9977,7 +10043,7 @@
         <v>0.0</v>
       </c>
       <c r="H38" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I38" t="n">
         <v>0.0</v>
@@ -9986,7 +10052,7 @@
         <v>0.0</v>
       </c>
       <c r="K38" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L38" t="n">
         <v>1.77</v>
@@ -9998,10 +10064,10 @@
         <v>4.3</v>
       </c>
       <c r="O38" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="P38" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="Q38" t="n">
         <v>12.0</v>
@@ -10049,16 +10115,16 @@
         <v>17.0</v>
       </c>
       <c r="AF38" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="AG38" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AH38" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AI38" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AJ38" t="n">
         <v>2.0</v>
@@ -10067,10 +10133,10 @@
         <v>1.0</v>
       </c>
       <c r="AL38" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="AM38" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="AN38" t="n">
         <v>1.0</v>
@@ -10201,16 +10267,16 @@
         <v>116</v>
       </c>
       <c r="B39" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C39" t="n" s="2">
         <v>45529.0</v>
       </c>
       <c r="D39" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="E39" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="F39" t="n">
         <v>1.0</v>
@@ -10219,7 +10285,7 @@
         <v>0.0</v>
       </c>
       <c r="H39" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I39" t="n">
         <v>1.0</v>
@@ -10228,7 +10294,7 @@
         <v>0.0</v>
       </c>
       <c r="K39" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L39" t="n">
         <v>1.72</v>
@@ -10240,10 +10306,10 @@
         <v>4.6</v>
       </c>
       <c r="O39" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="P39" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="Q39" t="n">
         <v>12.0</v>
@@ -10291,16 +10357,16 @@
         <v>19.0</v>
       </c>
       <c r="AF39" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="AG39" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AH39" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AI39" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AJ39" t="n">
         <v>4.0</v>
@@ -10309,10 +10375,10 @@
         <v>0.0</v>
       </c>
       <c r="AL39" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="AM39" t="s">
-        <v>296</v>
+        <v>171</v>
       </c>
       <c r="AN39" t="n">
         <v>1.0</v>
@@ -10443,16 +10509,16 @@
         <v>117</v>
       </c>
       <c r="B40" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C40" t="n" s="2">
         <v>45534.0</v>
       </c>
       <c r="D40" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="E40" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="F40" t="n">
         <v>1.0</v>
@@ -10461,7 +10527,7 @@
         <v>0.0</v>
       </c>
       <c r="H40" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I40" t="n">
         <v>0.0</v>
@@ -10470,7 +10536,7 @@
         <v>0.0</v>
       </c>
       <c r="K40" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L40" t="n">
         <v>1.66</v>
@@ -10482,10 +10548,10 @@
         <v>4.77</v>
       </c>
       <c r="O40" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="P40" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="Q40" t="n">
         <v>15.0</v>
@@ -10533,16 +10599,16 @@
         <v>20.0</v>
       </c>
       <c r="AF40" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="AG40" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AH40" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AI40" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AJ40" t="n">
         <v>6.0</v>
@@ -10551,10 +10617,10 @@
         <v>0.0</v>
       </c>
       <c r="AL40" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="AM40" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="AN40" t="n">
         <v>1.0</v>
@@ -10685,16 +10751,16 @@
         <v>118</v>
       </c>
       <c r="B41" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C41" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D41" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E41" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="F41" t="n">
         <v>5.0</v>
@@ -10703,7 +10769,7 @@
         <v>2.0</v>
       </c>
       <c r="H41" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I41" t="n">
         <v>3.0</v>
@@ -10712,7 +10778,7 @@
         <v>2.0</v>
       </c>
       <c r="K41" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L41" t="n">
         <v>2.71</v>
@@ -10724,10 +10790,10 @@
         <v>2.52</v>
       </c>
       <c r="O41" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="P41" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="Q41" t="n">
         <v>11.0</v>
@@ -10775,16 +10841,16 @@
         <v>20.0</v>
       </c>
       <c r="AF41" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="AG41" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AH41" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AI41" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AJ41" t="n">
         <v>4.0</v>
@@ -10793,10 +10859,10 @@
         <v>0.0</v>
       </c>
       <c r="AL41" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="AM41" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="AN41" t="n">
         <v>7.0</v>
@@ -10927,16 +10993,16 @@
         <v>119</v>
       </c>
       <c r="B42" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C42" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D42" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="E42" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="F42" t="n">
         <v>1.0</v>
@@ -10945,7 +11011,7 @@
         <v>2.0</v>
       </c>
       <c r="H42" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="I42" t="n">
         <v>0.0</v>
@@ -10954,7 +11020,7 @@
         <v>2.0</v>
       </c>
       <c r="K42" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L42" t="n">
         <v>2.9</v>
@@ -10966,10 +11032,10 @@
         <v>2.43</v>
       </c>
       <c r="O42" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="P42" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="Q42" t="n">
         <v>15.0</v>
@@ -11017,16 +11083,16 @@
         <v>39.0</v>
       </c>
       <c r="AF42" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="AG42" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AH42" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AI42" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AJ42" t="n">
         <v>5.0</v>
@@ -11035,10 +11101,10 @@
         <v>0.0</v>
       </c>
       <c r="AL42" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="AM42" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="AN42" t="n">
         <v>3.0</v>
@@ -11169,16 +11235,16 @@
         <v>120</v>
       </c>
       <c r="B43" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C43" t="n" s="2">
         <v>45535.0</v>
       </c>
       <c r="D43" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E43" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F43" t="n">
         <v>2.0</v>
@@ -11187,7 +11253,7 @@
         <v>0.0</v>
       </c>
       <c r="H43" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I43" t="n">
         <v>1.0</v>
@@ -11196,7 +11262,7 @@
         <v>0.0</v>
       </c>
       <c r="K43" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L43" t="n">
         <v>1.93</v>
@@ -11208,10 +11274,10 @@
         <v>4.09</v>
       </c>
       <c r="O43" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="P43" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="Q43" t="n">
         <v>13.0</v>
@@ -11259,16 +11325,16 @@
         <v>27.0</v>
       </c>
       <c r="AF43" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="AG43" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AH43" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AI43" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AJ43" t="n">
         <v>8.0</v>
@@ -11277,10 +11343,10 @@
         <v>0.0</v>
       </c>
       <c r="AL43" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="AM43" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="AN43" t="n">
         <v>2.0</v>
@@ -11411,16 +11477,16 @@
         <v>121</v>
       </c>
       <c r="B44" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C44" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D44" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E44" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="F44" t="n">
         <v>3.0</v>
@@ -11429,7 +11495,7 @@
         <v>0.0</v>
       </c>
       <c r="H44" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I44" t="n">
         <v>2.0</v>
@@ -11438,7 +11504,7 @@
         <v>0.0</v>
       </c>
       <c r="K44" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L44" t="n">
         <v>1.51</v>
@@ -11450,10 +11516,10 @@
         <v>5.72</v>
       </c>
       <c r="O44" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="P44" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="Q44" t="n">
         <v>21.0</v>
@@ -11501,16 +11567,16 @@
         <v>16.0</v>
       </c>
       <c r="AF44" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="AG44" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AH44" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AI44" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AJ44" t="n">
         <v>2.0</v>
@@ -11519,10 +11585,10 @@
         <v>0.0</v>
       </c>
       <c r="AL44" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="AM44" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="AN44" t="n">
         <v>3.0</v>
@@ -11653,16 +11719,16 @@
         <v>122</v>
       </c>
       <c r="B45" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C45" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D45" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="E45" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="F45" t="n">
         <v>1.0</v>
@@ -11671,7 +11737,7 @@
         <v>1.0</v>
       </c>
       <c r="H45" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I45" t="n">
         <v>1.0</v>
@@ -11680,7 +11746,7 @@
         <v>1.0</v>
       </c>
       <c r="K45" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L45" t="n">
         <v>2.5</v>
@@ -11692,10 +11758,10 @@
         <v>2.66</v>
       </c>
       <c r="O45" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="P45" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="Q45" t="n">
         <v>15.0</v>
@@ -11743,16 +11809,16 @@
         <v>28.0</v>
       </c>
       <c r="AF45" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="AG45" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AH45" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AI45" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AJ45" t="n">
         <v>7.0</v>
@@ -11761,10 +11827,10 @@
         <v>0.0</v>
       </c>
       <c r="AL45" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="AM45" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="AN45" t="n">
         <v>2.0</v>
@@ -11895,16 +11961,16 @@
         <v>123</v>
       </c>
       <c r="B46" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C46" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D46" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="E46" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="F46" t="n">
         <v>0.0</v>
@@ -11913,7 +11979,7 @@
         <v>0.0</v>
       </c>
       <c r="H46" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I46" t="n">
         <v>0.0</v>
@@ -11922,7 +11988,7 @@
         <v>0.0</v>
       </c>
       <c r="K46" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L46" t="n">
         <v>2.07</v>
@@ -11934,10 +12000,10 @@
         <v>3.3</v>
       </c>
       <c r="O46" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="P46" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="Q46" t="n">
         <v>22.0</v>
@@ -11985,16 +12051,16 @@
         <v>23.0</v>
       </c>
       <c r="AF46" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="AG46" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AH46" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AI46" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AJ46" t="n">
         <v>7.0</v>
@@ -12003,10 +12069,10 @@
         <v>0.0</v>
       </c>
       <c r="AL46" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="AM46" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="AN46" t="n">
         <v>0.0</v>
@@ -12137,16 +12203,16 @@
         <v>124</v>
       </c>
       <c r="B47" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C47" t="n" s="2">
         <v>45536.0</v>
       </c>
       <c r="D47" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="E47" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="F47" t="n">
         <v>1.0</v>
@@ -12155,7 +12221,7 @@
         <v>1.0</v>
       </c>
       <c r="H47" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I47" t="n">
         <v>0.0</v>
@@ -12164,7 +12230,7 @@
         <v>1.0</v>
       </c>
       <c r="K47" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L47" t="n">
         <v>2.12</v>
@@ -12176,10 +12242,10 @@
         <v>3.4</v>
       </c>
       <c r="O47" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="P47" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="Q47" t="n">
         <v>15.0</v>
@@ -12227,16 +12293,16 @@
         <v>20.0</v>
       </c>
       <c r="AF47" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="AG47" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AH47" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AI47" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AJ47" t="n">
         <v>2.0</v>
@@ -12245,10 +12311,10 @@
         <v>0.0</v>
       </c>
       <c r="AL47" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="AM47" t="s">
-        <v>298</v>
+        <v>320</v>
       </c>
       <c r="AN47" t="n">
         <v>2.0</v>
@@ -12379,16 +12445,16 @@
         <v>125</v>
       </c>
       <c r="B48" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C48" t="n" s="2">
         <v>45548.0</v>
       </c>
       <c r="D48" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E48" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F48" t="n">
         <v>0.0</v>
@@ -12397,7 +12463,7 @@
         <v>2.0</v>
       </c>
       <c r="H48" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="I48" t="n">
         <v>0.0</v>
@@ -12406,7 +12472,7 @@
         <v>1.0</v>
       </c>
       <c r="K48" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L48" t="n">
         <v>2.1</v>
@@ -12418,10 +12484,10 @@
         <v>3.77</v>
       </c>
       <c r="O48" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="P48" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="Q48" t="n">
         <v>15.0</v>
@@ -12469,16 +12535,16 @@
         <v>23.0</v>
       </c>
       <c r="AF48" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="AG48" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AH48" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AI48" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AJ48" t="n">
         <v>4.0</v>
@@ -12487,10 +12553,10 @@
         <v>0.0</v>
       </c>
       <c r="AL48" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="AM48" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="AN48" t="n">
         <v>2.0</v>
@@ -12621,16 +12687,16 @@
         <v>126</v>
       </c>
       <c r="B49" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C49" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D49" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E49" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="F49" t="n">
         <v>2.0</v>
@@ -12639,7 +12705,7 @@
         <v>3.0</v>
       </c>
       <c r="H49" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="I49" t="n">
         <v>2.0</v>
@@ -12648,7 +12714,7 @@
         <v>2.0</v>
       </c>
       <c r="K49" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L49" t="n">
         <v>2.68</v>
@@ -12660,10 +12726,10 @@
         <v>2.41</v>
       </c>
       <c r="O49" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="P49" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="Q49" t="n">
         <v>10.0</v>
@@ -12711,16 +12777,16 @@
         <v>19.0</v>
       </c>
       <c r="AF49" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="AG49" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AH49" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AI49" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AJ49" t="n">
         <v>1.0</v>
@@ -12729,10 +12795,10 @@
         <v>0.0</v>
       </c>
       <c r="AL49" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="AM49" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="AN49" t="n">
         <v>5.0</v>
@@ -12863,16 +12929,16 @@
         <v>127</v>
       </c>
       <c r="B50" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C50" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D50" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="E50" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F50" t="n">
         <v>0.0</v>
@@ -12881,7 +12947,7 @@
         <v>3.0</v>
       </c>
       <c r="H50" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="I50" t="n">
         <v>0.0</v>
@@ -12890,7 +12956,7 @@
         <v>1.0</v>
       </c>
       <c r="K50" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L50" t="n">
         <v>6.28</v>
@@ -12902,10 +12968,10 @@
         <v>1.45</v>
       </c>
       <c r="O50" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="P50" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="Q50" t="n">
         <v>6.0</v>
@@ -12953,16 +13019,16 @@
         <v>35.0</v>
       </c>
       <c r="AF50" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="AG50" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AH50" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AI50" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AJ50" t="n">
         <v>5.0</v>
@@ -12971,10 +13037,10 @@
         <v>0.0</v>
       </c>
       <c r="AL50" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="AM50" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="AN50" t="n">
         <v>3.0</v>
@@ -13105,16 +13171,16 @@
         <v>128</v>
       </c>
       <c r="B51" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C51" t="n" s="2">
         <v>45549.0</v>
       </c>
       <c r="D51" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E51" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="F51" t="n">
         <v>2.0</v>
@@ -13123,7 +13189,7 @@
         <v>2.0</v>
       </c>
       <c r="H51" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I51" t="n">
         <v>1.0</v>
@@ -13132,7 +13198,7 @@
         <v>1.0</v>
       </c>
       <c r="K51" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L51" t="n">
         <v>1.68</v>
@@ -13144,10 +13210,10 @@
         <v>4.31</v>
       </c>
       <c r="O51" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="P51" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="Q51" t="n">
         <v>25.0</v>
@@ -13195,16 +13261,16 @@
         <v>27.0</v>
       </c>
       <c r="AF51" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="AG51" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AH51" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AI51" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AJ51" t="n">
         <v>9.0</v>
@@ -13213,10 +13279,10 @@
         <v>0.0</v>
       </c>
       <c r="AL51" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="AM51" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="AN51" t="n">
         <v>4.0</v>
@@ -13347,16 +13413,16 @@
         <v>129</v>
       </c>
       <c r="B52" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C52" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D52" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E52" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="F52" t="n">
         <v>2.0</v>
@@ -13365,7 +13431,7 @@
         <v>0.0</v>
       </c>
       <c r="H52" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I52" t="n">
         <v>0.0</v>
@@ -13374,7 +13440,7 @@
         <v>0.0</v>
       </c>
       <c r="K52" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L52" t="n">
         <v>2.38</v>
@@ -13386,10 +13452,10 @@
         <v>2.9</v>
       </c>
       <c r="O52" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="P52" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="Q52" t="n">
         <v>11.0</v>
@@ -13437,16 +13503,16 @@
         <v>29.0</v>
       </c>
       <c r="AF52" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="AG52" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AH52" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AI52" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AJ52" t="n">
         <v>5.0</v>
@@ -13455,10 +13521,10 @@
         <v>1.0</v>
       </c>
       <c r="AL52" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="AM52" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="AN52" t="n">
         <v>2.0</v>
@@ -13589,16 +13655,16 @@
         <v>130</v>
       </c>
       <c r="B53" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C53" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D53" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E53" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="F53" t="n">
         <v>2.0</v>
@@ -13607,7 +13673,7 @@
         <v>1.0</v>
       </c>
       <c r="H53" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I53" t="n">
         <v>1.0</v>
@@ -13616,7 +13682,7 @@
         <v>0.0</v>
       </c>
       <c r="K53" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L53" t="n">
         <v>2.93</v>
@@ -13628,10 +13694,10 @@
         <v>2.39</v>
       </c>
       <c r="O53" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="P53" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="Q53" t="n">
         <v>7.0</v>
@@ -13679,16 +13745,16 @@
         <v>26.0</v>
       </c>
       <c r="AF53" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="AG53" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AH53" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AI53" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AJ53" t="n">
         <v>4.0</v>
@@ -13697,10 +13763,10 @@
         <v>0.0</v>
       </c>
       <c r="AL53" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="AM53" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="AN53" t="n">
         <v>3.0</v>
@@ -13831,16 +13897,16 @@
         <v>131</v>
       </c>
       <c r="B54" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C54" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D54" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="E54" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="F54" t="n">
         <v>3.0</v>
@@ -13849,7 +13915,7 @@
         <v>0.0</v>
       </c>
       <c r="H54" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I54" t="n">
         <v>1.0</v>
@@ -13858,7 +13924,7 @@
         <v>0.0</v>
       </c>
       <c r="K54" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L54" t="n">
         <v>1.58</v>
@@ -13870,10 +13936,10 @@
         <v>5.43</v>
       </c>
       <c r="O54" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="P54" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="Q54" t="n">
         <v>24.0</v>
@@ -13921,16 +13987,16 @@
         <v>26.0</v>
       </c>
       <c r="AF54" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="AG54" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AH54" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AI54" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AJ54" t="n">
         <v>1.0</v>
@@ -13939,10 +14005,10 @@
         <v>0.0</v>
       </c>
       <c r="AL54" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="AM54" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="AN54" t="n">
         <v>3.0</v>
@@ -14073,16 +14139,16 @@
         <v>132</v>
       </c>
       <c r="B55" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C55" t="n" s="2">
         <v>45550.0</v>
       </c>
       <c r="D55" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="E55" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="F55" t="n">
         <v>2.0</v>
@@ -14091,7 +14157,7 @@
         <v>0.0</v>
       </c>
       <c r="H55" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I55" t="n">
         <v>2.0</v>
@@ -14100,7 +14166,7 @@
         <v>0.0</v>
       </c>
       <c r="K55" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L55" t="n">
         <v>1.67</v>
@@ -14112,10 +14178,10 @@
         <v>4.76</v>
       </c>
       <c r="O55" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="P55" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="Q55" t="n">
         <v>22.0</v>
@@ -14163,16 +14229,16 @@
         <v>21.0</v>
       </c>
       <c r="AF55" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="AG55" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AH55" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AI55" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AJ55" t="n">
         <v>6.0</v>
@@ -14181,10 +14247,10 @@
         <v>1.0</v>
       </c>
       <c r="AL55" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="AM55" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="AN55" t="n">
         <v>2.0</v>
@@ -14315,16 +14381,16 @@
         <v>133</v>
       </c>
       <c r="B56" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C56" t="n" s="2">
         <v>45552.0</v>
       </c>
       <c r="D56" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E56" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="F56" t="n">
         <v>0.0</v>
@@ -14333,7 +14399,7 @@
         <v>2.0</v>
       </c>
       <c r="H56" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="I56" t="n">
         <v>0.0</v>
@@ -14342,7 +14408,7 @@
         <v>1.0</v>
       </c>
       <c r="K56" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L56" t="n">
         <v>2.71</v>
@@ -14354,10 +14420,10 @@
         <v>2.52</v>
       </c>
       <c r="O56" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="P56" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="Q56" t="n">
         <v>18.0</v>
@@ -14405,16 +14471,16 @@
         <v>30.0</v>
       </c>
       <c r="AF56" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="AG56" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AH56" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AI56" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AJ56" t="n">
         <v>3.0</v>
@@ -14423,10 +14489,10 @@
         <v>0.0</v>
       </c>
       <c r="AL56" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="AM56" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="AN56" t="n">
         <v>2.0</v>
@@ -14557,16 +14623,16 @@
         <v>134</v>
       </c>
       <c r="B57" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C57" t="n" s="2">
         <v>45555.0</v>
       </c>
       <c r="D57" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="E57" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="F57" t="n">
         <v>0.0</v>
@@ -14575,7 +14641,7 @@
         <v>0.0</v>
       </c>
       <c r="H57" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I57" t="n">
         <v>0.0</v>
@@ -14584,7 +14650,7 @@
         <v>0.0</v>
       </c>
       <c r="K57" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L57" t="n">
         <v>4.38</v>
@@ -14596,10 +14662,10 @@
         <v>1.92</v>
       </c>
       <c r="O57" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="P57" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="Q57" t="n">
         <v>8.0</v>
@@ -14647,16 +14713,16 @@
         <v>22.0</v>
       </c>
       <c r="AF57" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="AG57" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AH57" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AI57" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AJ57" t="n">
         <v>2.0</v>
@@ -14665,10 +14731,10 @@
         <v>0.0</v>
       </c>
       <c r="AL57" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="AM57" t="s">
-        <v>298</v>
+        <v>320</v>
       </c>
       <c r="AN57" t="n">
         <v>0.0</v>
@@ -14799,16 +14865,16 @@
         <v>135</v>
       </c>
       <c r="B58" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C58" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D58" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="E58" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="F58" t="n">
         <v>0.0</v>
@@ -14817,7 +14883,7 @@
         <v>3.0</v>
       </c>
       <c r="H58" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="I58" t="n">
         <v>0.0</v>
@@ -14826,7 +14892,7 @@
         <v>1.0</v>
       </c>
       <c r="K58" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L58" t="n">
         <v>2.57</v>
@@ -14838,10 +14904,10 @@
         <v>2.78</v>
       </c>
       <c r="O58" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="P58" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="Q58" t="n">
         <v>14.0</v>
@@ -14889,16 +14955,16 @@
         <v>17.0</v>
       </c>
       <c r="AF58" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="AG58" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AH58" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AI58" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AJ58" t="n">
         <v>1.0</v>
@@ -14907,10 +14973,10 @@
         <v>0.0</v>
       </c>
       <c r="AL58" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="AM58" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="AN58" t="n">
         <v>3.0</v>
@@ -15041,16 +15107,16 @@
         <v>136</v>
       </c>
       <c r="B59" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C59" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D59" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E59" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="F59" t="n">
         <v>1.0</v>
@@ -15059,7 +15125,7 @@
         <v>2.0</v>
       </c>
       <c r="H59" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="I59" t="n">
         <v>1.0</v>
@@ -15068,7 +15134,7 @@
         <v>1.0</v>
       </c>
       <c r="K59" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L59" t="n">
         <v>3.09</v>
@@ -15080,10 +15146,10 @@
         <v>2.17</v>
       </c>
       <c r="O59" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="P59" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="Q59" t="n">
         <v>18.0</v>
@@ -15131,16 +15197,16 @@
         <v>24.0</v>
       </c>
       <c r="AF59" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="AG59" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AH59" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AI59" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AJ59" t="n">
         <v>5.0</v>
@@ -15149,10 +15215,10 @@
         <v>0.0</v>
       </c>
       <c r="AL59" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="AM59" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="AN59" t="n">
         <v>3.0</v>
@@ -15283,16 +15349,16 @@
         <v>137</v>
       </c>
       <c r="B60" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C60" t="n" s="2">
         <v>45556.0</v>
       </c>
       <c r="D60" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E60" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="F60" t="n">
         <v>0.0</v>
@@ -15301,7 +15367,7 @@
         <v>0.0</v>
       </c>
       <c r="H60" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I60" t="n">
         <v>0.0</v>
@@ -15310,7 +15376,7 @@
         <v>0.0</v>
       </c>
       <c r="K60" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L60" t="n">
         <v>1.94</v>
@@ -15322,10 +15388,10 @@
         <v>3.72</v>
       </c>
       <c r="O60" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="P60" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="Q60" t="n">
         <v>10.0</v>
@@ -15373,16 +15439,16 @@
         <v>18.0</v>
       </c>
       <c r="AF60" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="AG60" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AH60" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AI60" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AJ60" t="n">
         <v>7.0</v>
@@ -15391,10 +15457,10 @@
         <v>0.0</v>
       </c>
       <c r="AL60" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="AM60" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="AN60" t="n">
         <v>0.0</v>
@@ -15525,16 +15591,16 @@
         <v>138</v>
       </c>
       <c r="B61" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C61" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D61" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E61" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F61" t="n">
         <v>2.0</v>
@@ -15543,7 +15609,7 @@
         <v>4.0</v>
       </c>
       <c r="H61" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="I61" t="n">
         <v>0.0</v>
@@ -15552,7 +15618,7 @@
         <v>2.0</v>
       </c>
       <c r="K61" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="L61" t="n">
         <v>1.52</v>
@@ -15564,10 +15630,10 @@
         <v>5.82</v>
       </c>
       <c r="O61" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="P61" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="Q61" t="n">
         <v>27.0</v>
@@ -15615,16 +15681,16 @@
         <v>16.0</v>
       </c>
       <c r="AF61" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="AG61" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AH61" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AI61" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AJ61" t="n">
         <v>8.0</v>
@@ -15633,10 +15699,10 @@
         <v>0.0</v>
       </c>
       <c r="AL61" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="AM61" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="AN61" t="n">
         <v>6.0</v>
@@ -15767,16 +15833,16 @@
         <v>139</v>
       </c>
       <c r="B62" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C62" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D62" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E62" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="F62" t="n">
         <v>2.0</v>
@@ -15785,7 +15851,7 @@
         <v>0.0</v>
       </c>
       <c r="H62" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I62" t="n">
         <v>1.0</v>
@@ -15794,7 +15860,7 @@
         <v>0.0</v>
       </c>
       <c r="K62" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L62" t="n">
         <v>2.57</v>
@@ -15806,10 +15872,10 @@
         <v>2.53</v>
       </c>
       <c r="O62" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="P62" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="Q62" t="n">
         <v>9.0</v>
@@ -15857,16 +15923,16 @@
         <v>25.0</v>
       </c>
       <c r="AF62" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="AG62" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AH62" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AI62" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AJ62" t="n">
         <v>4.0</v>
@@ -15875,10 +15941,10 @@
         <v>0.0</v>
       </c>
       <c r="AL62" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="AM62" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="AN62" t="n">
         <v>2.0</v>
@@ -16009,16 +16075,16 @@
         <v>140</v>
       </c>
       <c r="B63" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C63" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D63" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="E63" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="F63" t="n">
         <v>4.0</v>
@@ -16027,7 +16093,7 @@
         <v>0.0</v>
       </c>
       <c r="H63" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="I63" t="n">
         <v>1.0</v>
@@ -16036,7 +16102,7 @@
         <v>0.0</v>
       </c>
       <c r="K63" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L63" t="n">
         <v>1.49</v>
@@ -16048,10 +16114,10 @@
         <v>5.85</v>
       </c>
       <c r="O63" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="P63" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="Q63" t="n">
         <v>28.0</v>
@@ -16099,16 +16165,16 @@
         <v>19.0</v>
       </c>
       <c r="AF63" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="AG63" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AH63" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AI63" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AJ63" t="n">
         <v>2.0</v>
@@ -16117,10 +16183,10 @@
         <v>0.0</v>
       </c>
       <c r="AL63" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="AM63" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="AN63" t="n">
         <v>4.0</v>
@@ -16251,16 +16317,16 @@
         <v>141</v>
       </c>
       <c r="B64" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C64" t="n" s="2">
         <v>45557.0</v>
       </c>
       <c r="D64" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E64" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="F64" t="n">
         <v>1.0</v>
@@ -16269,7 +16335,7 @@
         <v>1.0</v>
       </c>
       <c r="H64" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I64" t="n">
         <v>0.0</v>
@@ -16278,7 +16344,7 @@
         <v>0.0</v>
       </c>
       <c r="K64" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="L64" t="n">
         <v>1.8</v>
@@ -16290,10 +16356,10 @@
         <v>4.46</v>
       </c>
       <c r="O64" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="P64" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="Q64" t="n">
         <v>16.0</v>
@@ -16341,16 +16407,16 @@
         <v>28.0</v>
       </c>
       <c r="AF64" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="AG64" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="AH64" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AI64" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="AJ64" t="n">
         <v>7.0</v>
@@ -16359,10 +16425,10 @@
         <v>0.0</v>
       </c>
       <c r="AL64" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="AM64" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="AN64" t="n">
         <v>2.0</v>
@@ -16486,6 +16552,2184 @@
       </c>
       <c r="CB64" t="n">
         <v>104.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>142</v>
+      </c>
+      <c r="B65" t="s">
+        <v>151</v>
+      </c>
+      <c r="C65" t="n" s="2">
+        <v>45561.0</v>
+      </c>
+      <c r="D65" t="s">
+        <v>165</v>
+      </c>
+      <c r="E65" t="s">
+        <v>167</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H65" t="s">
+        <v>169</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K65" t="s">
+        <v>168</v>
+      </c>
+      <c r="L65" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="N65" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="O65" t="s">
+        <v>172</v>
+      </c>
+      <c r="P65" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S65" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="T65" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U65" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V65" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH65" t="s">
+        <v>245</v>
+      </c>
+      <c r="AI65" t="s">
+        <v>246</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL65" t="s">
+        <v>310</v>
+      </c>
+      <c r="AM65" t="s">
+        <v>320</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>269.0</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="AX65" t="n">
+        <v>550.0</v>
+      </c>
+      <c r="AY65" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="AZ65" t="n">
+        <v>2959.0</v>
+      </c>
+      <c r="BA65" t="n">
+        <v>1650.0</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ65" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BL65" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BM65" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BN65" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO65" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BP65" t="n">
+        <v>800.0</v>
+      </c>
+      <c r="BQ65" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="BR65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS65" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="BT65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="BV65" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="BW65" t="n">
+        <v>218.0</v>
+      </c>
+      <c r="BX65" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="BY65" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BZ65" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="CA65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CB65" t="n">
+        <v>103.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>143</v>
+      </c>
+      <c r="B66" t="s">
+        <v>151</v>
+      </c>
+      <c r="C66" t="n" s="2">
+        <v>45562.0</v>
+      </c>
+      <c r="D66" t="s">
+        <v>156</v>
+      </c>
+      <c r="E66" t="s">
+        <v>152</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H66" t="s">
+        <v>168</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K66" t="s">
+        <v>168</v>
+      </c>
+      <c r="L66" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="N66" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O66" t="s">
+        <v>172</v>
+      </c>
+      <c r="P66" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S66" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="T66" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U66" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>201</v>
+      </c>
+      <c r="AG66" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH66" t="s">
+        <v>246</v>
+      </c>
+      <c r="AI66" t="s">
+        <v>246</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AL66" t="s">
+        <v>311</v>
+      </c>
+      <c r="AM66" t="s">
+        <v>325</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>139.0</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>1050.0</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="AX66" t="n">
+        <v>650.0</v>
+      </c>
+      <c r="AY66" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AZ66" t="n">
+        <v>1390.0</v>
+      </c>
+      <c r="BA66" t="n">
+        <v>1300.0</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BG66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BJ66" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BK66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL66" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BM66" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BN66" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="BO66" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="BP66" t="n">
+        <v>900.0</v>
+      </c>
+      <c r="BQ66" t="n">
+        <v>144.0</v>
+      </c>
+      <c r="BR66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS66" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="BT66" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>144.0</v>
+      </c>
+      <c r="BV66" t="n">
+        <v>186.0</v>
+      </c>
+      <c r="BW66" t="n">
+        <v>330.0</v>
+      </c>
+      <c r="BX66" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="BY66" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="BZ66" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="CA66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CB66" t="n">
+        <v>95.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>144</v>
+      </c>
+      <c r="B67" t="s">
+        <v>151</v>
+      </c>
+      <c r="C67" t="n" s="2">
+        <v>45563.0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>157</v>
+      </c>
+      <c r="E67" t="s">
+        <v>161</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H67" t="s">
+        <v>169</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K67" t="s">
+        <v>168</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="N67" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="O67" t="s">
+        <v>172</v>
+      </c>
+      <c r="P67" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S67" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="T67" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="U67" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V67" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="AF67" t="s">
+        <v>230</v>
+      </c>
+      <c r="AG67" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH67" t="s">
+        <v>245</v>
+      </c>
+      <c r="AI67" t="s">
+        <v>246</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL67" t="s">
+        <v>312</v>
+      </c>
+      <c r="AM67" t="s">
+        <v>324</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>233.0</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="AW67" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="AX67" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="AY67" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="AZ67" t="n">
+        <v>2796.0</v>
+      </c>
+      <c r="BA67" t="n">
+        <v>1800.0</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF67" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK67" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BL67" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BM67" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BN67" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO67" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BP67" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="BQ67" t="n">
+        <v>155.0</v>
+      </c>
+      <c r="BR67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS67" t="n">
+        <v>164.0</v>
+      </c>
+      <c r="BT67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>155.0</v>
+      </c>
+      <c r="BV67" t="n">
+        <v>164.0</v>
+      </c>
+      <c r="BW67" t="n">
+        <v>319.0</v>
+      </c>
+      <c r="BX67" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="BY67" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="BZ67" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="CA67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CB67" t="n">
+        <v>116.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>145</v>
+      </c>
+      <c r="B68" t="s">
+        <v>151</v>
+      </c>
+      <c r="C68" t="n" s="2">
+        <v>45563.0</v>
+      </c>
+      <c r="D68" t="s">
+        <v>166</v>
+      </c>
+      <c r="E68" t="s">
+        <v>159</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H68" t="s">
+        <v>170</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K68" t="s">
+        <v>170</v>
+      </c>
+      <c r="L68" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="N68" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="O68" t="s">
+        <v>173</v>
+      </c>
+      <c r="P68" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="S68" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T68" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="U68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V68" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="AF68" t="s">
+        <v>239</v>
+      </c>
+      <c r="AG68" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH68" t="s">
+        <v>245</v>
+      </c>
+      <c r="AI68" t="s">
+        <v>246</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL68" t="s">
+        <v>313</v>
+      </c>
+      <c r="AM68" t="s">
+        <v>322</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>210.0</v>
+      </c>
+      <c r="AX68" t="n">
+        <v>910.0</v>
+      </c>
+      <c r="AY68" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="AZ68" t="n">
+        <v>1729.0</v>
+      </c>
+      <c r="BA68" t="n">
+        <v>2730.0</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BG68" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK68" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BL68" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BM68" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BN68" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="BO68" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="BP68" t="n">
+        <v>700.0</v>
+      </c>
+      <c r="BQ68" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="BR68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS68" t="n">
+        <v>476.0</v>
+      </c>
+      <c r="BT68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="BV68" t="n">
+        <v>476.0</v>
+      </c>
+      <c r="BW68" t="n">
+        <v>543.0</v>
+      </c>
+      <c r="BX68" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="BY68" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="BZ68" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="CA68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="CB68" t="n">
+        <v>129.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>146</v>
+      </c>
+      <c r="B69" t="s">
+        <v>151</v>
+      </c>
+      <c r="C69" t="n" s="2">
+        <v>45563.0</v>
+      </c>
+      <c r="D69" t="s">
+        <v>155</v>
+      </c>
+      <c r="E69" t="s">
+        <v>153</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H69" t="s">
+        <v>168</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K69" t="s">
+        <v>170</v>
+      </c>
+      <c r="L69" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="N69" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="O69" t="s">
+        <v>173</v>
+      </c>
+      <c r="P69" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S69" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="T69" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="U69" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V69" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AF69" t="s">
+        <v>202</v>
+      </c>
+      <c r="AG69" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH69" t="s">
+        <v>246</v>
+      </c>
+      <c r="AI69" t="s">
+        <v>246</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL69" t="s">
+        <v>314</v>
+      </c>
+      <c r="AM69" t="s">
+        <v>323</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AX69" t="n">
+        <v>550.0</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="AZ69" t="n">
+        <v>880.0</v>
+      </c>
+      <c r="BA69" t="n">
+        <v>1100.0</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF69" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BG69" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BH69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM69" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BN69" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BO69" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="BP69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ69" t="n">
+        <v>228.0</v>
+      </c>
+      <c r="BR69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS69" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="BT69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>228.0</v>
+      </c>
+      <c r="BV69" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="BW69" t="n">
+        <v>398.0</v>
+      </c>
+      <c r="BX69" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="BY69" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="BZ69" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="CA69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CB69" t="n">
+        <v>88.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>147</v>
+      </c>
+      <c r="B70" t="s">
+        <v>151</v>
+      </c>
+      <c r="C70" t="n" s="2">
+        <v>45564.0</v>
+      </c>
+      <c r="D70" t="s">
+        <v>164</v>
+      </c>
+      <c r="E70" t="s">
+        <v>154</v>
+      </c>
+      <c r="F70" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H70" t="s">
+        <v>169</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K70" t="s">
+        <v>171</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M70" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="N70" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="O70" t="s">
+        <v>172</v>
+      </c>
+      <c r="P70" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF70" t="s">
+        <v>243</v>
+      </c>
+      <c r="AG70" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH70" t="s">
+        <v>245</v>
+      </c>
+      <c r="AI70" t="s">
+        <v>245</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL70" t="s">
+        <v>315</v>
+      </c>
+      <c r="AM70" t="s">
+        <v>319</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>209.0</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AX70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AZ70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BA70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK70" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BL70" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BM70" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BN70" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO70" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BP70" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="BQ70" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="BR70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS70" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="BT70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="BV70" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="BW70" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="BX70" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="BY70" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BZ70" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="CA70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CB70" t="n">
+        <v>75.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>148</v>
+      </c>
+      <c r="B71" t="s">
+        <v>151</v>
+      </c>
+      <c r="C71" t="n" s="2">
+        <v>45564.0</v>
+      </c>
+      <c r="D71" t="s">
+        <v>160</v>
+      </c>
+      <c r="E71" t="s">
+        <v>158</v>
+      </c>
+      <c r="F71" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H71" t="s">
+        <v>169</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K71" t="s">
+        <v>169</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="N71" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="O71" t="s">
+        <v>174</v>
+      </c>
+      <c r="P71" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="T71" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U71" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V71" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>209</v>
+      </c>
+      <c r="AG71" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>245</v>
+      </c>
+      <c r="AI71" t="s">
+        <v>246</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL71" t="s">
+        <v>316</v>
+      </c>
+      <c r="AM71" t="s">
+        <v>328</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="AU71" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="AX71" t="n">
+        <v>450.0</v>
+      </c>
+      <c r="AY71" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="AZ71" t="n">
+        <v>837.0</v>
+      </c>
+      <c r="BA71" t="n">
+        <v>1350.0</v>
+      </c>
+      <c r="BB71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BG71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ71" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BK71" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BL71" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BM71" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BN71" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO71" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BP71" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="BQ71" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="BR71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS71" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="BT71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="BV71" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="BW71" t="n">
+        <v>178.0</v>
+      </c>
+      <c r="BX71" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="BY71" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="BZ71" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="CA71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CB71" t="n">
+        <v>97.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>149</v>
+      </c>
+      <c r="B72" t="s">
+        <v>151</v>
+      </c>
+      <c r="C72" t="n" s="2">
+        <v>45564.0</v>
+      </c>
+      <c r="D72" t="s">
+        <v>167</v>
+      </c>
+      <c r="E72" t="s">
+        <v>162</v>
+      </c>
+      <c r="F72" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H72" t="s">
+        <v>169</v>
+      </c>
+      <c r="I72" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K72" t="s">
+        <v>169</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="N72" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="O72" t="s">
+        <v>175</v>
+      </c>
+      <c r="P72" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="S72" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="T72" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="U72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V72" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="AF72" t="s">
+        <v>237</v>
+      </c>
+      <c r="AG72" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH72" t="s">
+        <v>245</v>
+      </c>
+      <c r="AI72" t="s">
+        <v>246</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL72" t="s">
+        <v>317</v>
+      </c>
+      <c r="AM72" t="s">
+        <v>329</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="AX72" t="n">
+        <v>330.0</v>
+      </c>
+      <c r="AY72" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="AZ72" t="n">
+        <v>1100.0</v>
+      </c>
+      <c r="BA72" t="n">
+        <v>990.0</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ72" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BK72" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BL72" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="BM72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BN72" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BO72" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BP72" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="BQ72" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="BR72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS72" t="n">
+        <v>112.0</v>
+      </c>
+      <c r="BT72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="BV72" t="n">
+        <v>112.0</v>
+      </c>
+      <c r="BW72" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="BX72" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="BY72" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="BZ72" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="CA72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CB72" t="n">
+        <v>93.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>150</v>
+      </c>
+      <c r="B73" t="s">
+        <v>151</v>
+      </c>
+      <c r="C73" t="n" s="2">
+        <v>45564.0</v>
+      </c>
+      <c r="D73" t="s">
+        <v>165</v>
+      </c>
+      <c r="E73" t="s">
+        <v>163</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H73" t="s">
+        <v>168</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K73" t="s">
+        <v>169</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="N73" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="O73" t="s">
+        <v>174</v>
+      </c>
+      <c r="P73" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="R73" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="S73" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="T73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="U73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V73" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG73" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH73" t="s">
+        <v>246</v>
+      </c>
+      <c r="AI73" t="s">
+        <v>246</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AL73" t="s">
+        <v>318</v>
+      </c>
+      <c r="AM73" t="s">
+        <v>327</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="AU73" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="AX73" t="n">
+        <v>640.0</v>
+      </c>
+      <c r="AY73" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="AZ73" t="n">
+        <v>1968.0</v>
+      </c>
+      <c r="BA73" t="n">
+        <v>1280.0</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BF73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="BG73" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="BH73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BJ73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BK73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BL73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BM73" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="BN73" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="BO73" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="BP73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BQ73" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="BR73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BS73" t="n">
+        <v>218.0</v>
+      </c>
+      <c r="BT73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="BV73" t="n">
+        <v>218.0</v>
+      </c>
+      <c r="BW73" t="n">
+        <v>305.0</v>
+      </c>
+      <c r="BX73" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="BY73" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="BZ73" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="CA73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="CB73" t="n">
+        <v>98.0</v>
       </c>
     </row>
   </sheetData>
